--- a/mosip_master/xlsx/id_type.xlsx
+++ b/mosip_master/xlsx/id_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -116,6 +116,39 @@
   </si>
   <si>
     <t xml:space="preserve">ID utilisé par un fournisseur pour un demandeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رقم التعريف الفريد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الهوية الوطنية الممنوحة لمقدم الطلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معرف التسجيل المسبق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم تعيين المعرف بعد التسجيل المسبق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معرف تسجيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المعرف المعين بعد التسجيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المعرف الظاهري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المعرف المستخدم في استبدال UIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معرف الرمز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المعرف المستخدم من قبل البائع لمقدم الطلب</t>
   </si>
 </sst>
 </file>
@@ -206,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,6 +258,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -244,14 +281,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E11"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -439,6 +480,91 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
